--- a/static/documentos/PROGRESO.xlsx
+++ b/static/documentos/PROGRESO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="20">
   <si>
     <t>REGIÓN</t>
   </si>
@@ -72,13 +72,25 @@
   </si>
   <si>
     <t>ESCUELATIC</t>
+  </si>
+  <si>
+    <t>NIVEL 1 - %</t>
+  </si>
+  <si>
+    <t>NIVEL 2 - %</t>
+  </si>
+  <si>
+    <t>NIVEL 3 - %</t>
+  </si>
+  <si>
+    <t>NIVEL 4 - %</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +101,13 @@
     <font>
       <sz val="14"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -156,7 +175,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -164,42 +183,90 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -511,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:AF39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,298 +590,917 @@
     <col min="2" max="2" width="29.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C1">
+        <v>11106</v>
+      </c>
+      <c r="D1">
+        <v>17869</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="4" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="8" t="s">
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="8"/>
-    </row>
-    <row r="4" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD3" s="6"/>
+    </row>
+    <row r="4" spans="1:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="5" t="s">
+      <c r="G4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="N4" s="7" t="s">
+      <c r="K4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="U4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="V4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="W4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="X4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD4" s="20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="G5" s="16">
+        <f>C5/$C1</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="17">
+        <f>D5/C1</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="17">
+        <f>E5/C1</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="19">
+        <f>F5/C1</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="16">
+        <f>K5/C1</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="17">
+        <f>L5/C1</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="17">
+        <f>N5/C1</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="19">
+        <f>N5/C1</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="16">
+        <f>S5/C1</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="17">
+        <f>T5/C1</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="17">
+        <f>U5/C1</f>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="19">
+        <f>V5/C1</f>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="16">
+        <f>AA5/C1</f>
+        <v>0</v>
+      </c>
+      <c r="AD5" s="19">
+        <f>AB5/C1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="G6" s="16">
+        <f>C6/D1</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="17">
+        <f>D6/D1</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="17">
+        <f>E6/D1</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="19">
+        <f>F6/D1</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="16">
+        <f>K6/D1</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="17">
+        <f>L6/D1</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="17">
+        <f>M6/D1</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="19">
+        <f>N6/D1</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="16">
+        <f>S6/D1</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="17">
+        <f>T6/D1</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="17">
+        <f>U6/D1</f>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="19">
+        <f>V6/D1</f>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="16">
+        <f>AA6/D1</f>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="19">
+        <f>AB6/D1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="C12">
+        <v>1160</v>
+      </c>
+      <c r="D12">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="4" t="s">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="6" t="s">
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="8" t="s">
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P14" s="8"/>
-    </row>
-    <row r="15" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD14" s="6"/>
+    </row>
+    <row r="15" spans="1:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="5" t="s">
+      <c r="G15" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K15" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="N15" s="7" t="s">
+      <c r="K15" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="O15" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="P15" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O15" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P15" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="S15" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="T15" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="U15" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="V15" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="W15" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="X15" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y15" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z15" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB15" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD15" s="20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="G16" s="16">
+        <f>C16/C12</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="17">
+        <f>D16/C12</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="17">
+        <f>E16/C12</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="19">
+        <f>F16/C12</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="16">
+        <f>K16/C12</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="17">
+        <f>L16/C12</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="17">
+        <f>M16/C12</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="19">
+        <f>N16/C12</f>
+        <v>0</v>
+      </c>
+      <c r="W16" s="16">
+        <f>S16/C12</f>
+        <v>0</v>
+      </c>
+      <c r="X16" s="17">
+        <f>T16/C12</f>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="17">
+        <f>U16/C12</f>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="19">
+        <f>V16/C12</f>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="16">
+        <f>AA16/C12</f>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="19">
+        <f>AB16/C12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="G17" s="16">
+        <f>C17/D12</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="17">
+        <f>D17/D12</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="17">
+        <f>E17/D12</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="19">
+        <f>F17/D12</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="16">
+        <f>K17/D12</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="17">
+        <f>L17/D12</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="17">
+        <f>M17/D12</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="19">
+        <f>N17/D12</f>
+        <v>0</v>
+      </c>
+      <c r="W17" s="16">
+        <f>S17/D12</f>
+        <v>0</v>
+      </c>
+      <c r="X17" s="17">
+        <f>T17/D12</f>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="17">
+        <f>U17/D12</f>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="19">
+        <f>V17/D12</f>
+        <v>0</v>
+      </c>
+      <c r="AC17" s="16">
+        <f>AA17/D12</f>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="19">
+        <f>AB17/D12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="C23">
+        <v>2860</v>
+      </c>
+      <c r="D23">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="4" t="s">
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="6" t="s">
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="8" t="s">
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="Q25" s="8"/>
-    </row>
-    <row r="26" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="3" t="s">
+      <c r="AD25" s="6"/>
+      <c r="AE25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF25" s="6"/>
+    </row>
+    <row r="26" spans="1:32" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="M26" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="I26" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P26" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q26" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="M26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O26" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P26" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="R26" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S26" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="T26" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="U26" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="V26" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="W26" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="X26" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y26" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z26" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA26" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB26" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC26" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD26" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE26" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF26" s="20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="I27" s="16">
+        <f>C27/C23</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="18">
+        <f>D27/C23</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="18">
+        <f>E27/C23</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="18">
+        <f>F27/C23</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="18">
+        <f>G27/C23</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="19">
+        <f>H27/C23</f>
+        <v>0</v>
+      </c>
+      <c r="R27" s="16">
+        <f>O27/C23</f>
+        <v>0</v>
+      </c>
+      <c r="S27" s="17">
+        <f>P27/C23</f>
+        <v>0</v>
+      </c>
+      <c r="T27" s="19">
+        <f>Q27/C23</f>
+        <v>0</v>
+      </c>
+      <c r="Y27" s="16">
+        <f>U27/C23</f>
+        <v>0</v>
+      </c>
+      <c r="Z27" s="17">
+        <f>V27/C23</f>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="17">
+        <f>W27/C23</f>
+        <v>0</v>
+      </c>
+      <c r="AB27" s="19">
+        <f>X27/C23</f>
+        <v>0</v>
+      </c>
+      <c r="AE27" s="16">
+        <f>AC27/C23</f>
+        <v>0</v>
+      </c>
+      <c r="AF27" s="19">
+        <f>AD27/C23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="I28" s="16">
+        <f>C28/D23</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="18">
+        <f>D28/D23</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="18">
+        <f>E28/D23</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="18">
+        <f>F28/D23</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="18">
+        <f>G28/D23</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="19">
+        <f>H28/D23</f>
+        <v>0</v>
+      </c>
+      <c r="R28" s="16">
+        <f>O28/D23</f>
+        <v>0</v>
+      </c>
+      <c r="S28" s="17">
+        <f>P28/D23</f>
+        <v>0</v>
+      </c>
+      <c r="T28" s="19">
+        <f>Q28/D23</f>
+        <v>0</v>
+      </c>
+      <c r="Y28" s="16">
+        <f>U28/D23</f>
+        <v>0</v>
+      </c>
+      <c r="Z28" s="17">
+        <f>V28/D23</f>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="17">
+        <f>W28/D23</f>
+        <v>0</v>
+      </c>
+      <c r="AB28" s="19">
+        <f>X28/D23</f>
+        <v>0</v>
+      </c>
+      <c r="AE28" s="16">
+        <f>AC28/D23</f>
+        <v>0</v>
+      </c>
+      <c r="AF28" s="19">
+        <f>AD28/D23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="4" t="s">
+      <c r="C34">
+        <v>43400</v>
+      </c>
+      <c r="D34">
+        <v>70400</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="4"/>
-    </row>
-    <row r="37" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>3</v>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D38" s="16">
+        <f>B38/C34</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="19">
+        <f>C38/C34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D39" s="16">
+        <f>B39/D34</f>
+        <v>0</v>
+      </c>
+      <c r="E39" s="19">
+        <f>C39/D34</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="P25:Q25"/>
+  <mergeCells count="33">
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="U25:X25"/>
+    <mergeCell ref="Y25:AB25"/>
+    <mergeCell ref="AC25:AD25"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="W14:Z14"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="B3:B4"/>
     <mergeCell ref="C25:H25"/>
-    <mergeCell ref="I25:K25"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="G14:J14"/>
     <mergeCell ref="K14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="I25:N25"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D36:E36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
